--- a/medicine/Psychotrope/Barrio_Amon/Barrio_Amon.xlsx
+++ b/medicine/Psychotrope/Barrio_Amon/Barrio_Amon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Quartier d'Amon en français, ou Barrio Amon, est un quartier de la Belle Époque situé à San José, capitale du Costa Rica. Il est l'un des six quartiers de l'arrondissement du Carmen, dans le secteur nord-est de la ville.  Premier quartier résidentiel moderne de la capitale, c'est un des quartiers historiques du centre-ville connu principalement par son élégante architecture de fin du XIXe siècle et du début XXe.
 Le Barrio Amon est constitué de maisons et de bâtiments de divers styles: victorien, éclectique, néo-classique, neomudéjar et d'autres, cassant avec le schéma colonial de maisons d'adobe et bahareque lesquels dominaient auparavant de cette époque le paysage de San José.
@@ -513,7 +525,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le quartier se trouve délimité de la façon suivante :
 Nord: Rivière Torres et avenue 13.
@@ -547,11 +561,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation du quartier a été le fruit de l'accroissement de la ville de San José pendant la dernière décennie du XIXe siècle, comme conséquence d'une nouvelle organisation socio-spatial de la capitale costaricienne, alliée à la création de l'axe interurbain de la Rue de la Gare, ainsi qu'à d'autres endroits de plaisance et de loisir. Ce processus a été la conséquence de la richesse générée par le commerce international du café, grâce auquel San José s'est consolidé comme le centre politique, culturel, commercial, des services et des communications du pays, un mouvement engagé depuis le milieu du XIXe siècle avec l'aménagement des égouts, de l'éclairage publique, des transports et des postes télégraphiques.
-La construction de la Rue de la Gare a été le résultat de la politique libérale qu’a gouverné le Costa Rica pendant cette époque, laquelle proposait une nouvelle conception de la bourgeoisie nationale ainsi que la consolidation du concept de la nation avec l'édification de monuments nationaux et la création de symboles civiques et patriotiques. Le choix de cet endroit a été motivé par l'existence de la gare ferroviaire de l'Atlantique qui marquait l'entrée principale à la ville. L'esthétique favorisait la création d'une promenade urbaine qui permît d'embellir la capitale en allant du Parc National jusqu'au Parc Morazán, les principaux espaces verts urbains de la ville. Le lieu devint l'axe de la vie urbaine avec la construction de divers bâtiments de grande importance, comme la Maison Jaune, le Bâtiment Métallique, le Temple de la Musique du Parc Morazán et le Parc Espagne face à l’Usine Nationale de Liqueurs. La Rue de la Gare, ornée par des arbres appelés en espagnol dama, ou cotelets en français, ainsi que fréquentée par les élégantes dames de la bourgeoisie, donna comme jeu de mots : Promenade des Dames[1]. Tout ceci motiva la migration de figures de la politique, des personnalités nationales et étrangères avec l'intention de peupler les terrains proches à ce nouveau centre civique et culturel de la capitale costaricienne.
-Le nom du quartier surgit à partir d'un entrepreneur originaire d'une notable famille de Bordeaux: Amon Fasileau-Duplantier, connu aussi localement comme Monsieur Amon[2], qu'immigra au Costa Rica au XIXe siècle. M. Amon était le beau-frère de l'entrepreneur français Hippolyte Tournon, ainsi que son fondé de pouvoir, représentant du bénéfice de café où se trouve aujourd'hui le Barrio Amon. Ces terrains avaient été acquis en 1864 par Tournon pour agrandir les propriétés envisagées pour le café, principal moteur de l'économie costaricienne de l'époque. En 1892, M. Amon proposa à la Municipalité de San José la création d'un quartier dans cette zone. En 1894, il signa finalement le contrat avec la Municipalité, et la zone fut connue ainsi sous le nom de son fondateur comme le Quartier d'Amon.
+La construction de la Rue de la Gare a été le résultat de la politique libérale qu’a gouverné le Costa Rica pendant cette époque, laquelle proposait une nouvelle conception de la bourgeoisie nationale ainsi que la consolidation du concept de la nation avec l'édification de monuments nationaux et la création de symboles civiques et patriotiques. Le choix de cet endroit a été motivé par l'existence de la gare ferroviaire de l'Atlantique qui marquait l'entrée principale à la ville. L'esthétique favorisait la création d'une promenade urbaine qui permît d'embellir la capitale en allant du Parc National jusqu'au Parc Morazán, les principaux espaces verts urbains de la ville. Le lieu devint l'axe de la vie urbaine avec la construction de divers bâtiments de grande importance, comme la Maison Jaune, le Bâtiment Métallique, le Temple de la Musique du Parc Morazán et le Parc Espagne face à l’Usine Nationale de Liqueurs. La Rue de la Gare, ornée par des arbres appelés en espagnol dama, ou cotelets en français, ainsi que fréquentée par les élégantes dames de la bourgeoisie, donna comme jeu de mots : Promenade des Dames. Tout ceci motiva la migration de figures de la politique, des personnalités nationales et étrangères avec l'intention de peupler les terrains proches à ce nouveau centre civique et culturel de la capitale costaricienne.
+Le nom du quartier surgit à partir d'un entrepreneur originaire d'une notable famille de Bordeaux: Amon Fasileau-Duplantier, connu aussi localement comme Monsieur Amon, qu'immigra au Costa Rica au XIXe siècle. M. Amon était le beau-frère de l'entrepreneur français Hippolyte Tournon, ainsi que son fondé de pouvoir, représentant du bénéfice de café où se trouve aujourd'hui le Barrio Amon. Ces terrains avaient été acquis en 1864 par Tournon pour agrandir les propriétés envisagées pour le café, principal moteur de l'économie costaricienne de l'époque. En 1892, M. Amon proposa à la Municipalité de San José la création d'un quartier dans cette zone. En 1894, il signa finalement le contrat avec la Municipalité, et la zone fut connue ainsi sous le nom de son fondateur comme le Quartier d'Amon.
 En 1897, le quartier fut divisé en lots et se peupla lors des trois premières décennies du XXe siècle, devenant le siège et le symbole de la bourgeoisie de la capitale. Il fut habité par des personnalités de la classe politique, des étrangers - principalement espagnols et allemands -, ainsi que des costariciens enrichis par le commerce du café, de la production de sucre, de la culture de la banane et d'autres. La création du quartier a signifié un changement dans la forme de colonisation de l'espace de la capitale, tourné vers la construction de quartiers exclusifs. le Quartier d'Amon devint ainsi le premier quartier résidentiel où habita la bourgeoisie du café de San José.
 </t>
         </is>
@@ -581,12 +597,49 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les logements du Barrio Amon cassèrent avec la traditionnelle construction coloniale caractérisée par des maisons d'adobe, bahareque et tuiles typiques du San José du XIXe siècle. La différenciation s'appliqua aux façades car l'intérieur des logements, avec quelques exceptions, suivirent le style des maisons coloniales.
 L'architecture du Barrio Amon exprime la richesse et l'ostentation de ses premiers habitants appartenant à la bourgeoisie : amples jardins, constructions éloignées des trottoirs et logements protégés par des grilles de fer qui marquent symboliquement ce distancement de la rue. Quatre styles sont prédominants: Éclectique, victorien, néo-classique et deuxième empire. Le style mudéjar se trouve aussi présent dans le logement connu comme le Château du Maure.
-Patrimoine du Barrio Amon
-Beaucoup des bâtiments du Barrio Amon font aujourd'hui partie du patrimoine historique du Costa Rica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barrio_Amon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrio_Amon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Patrimoine du Barrio Amon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup des bâtiments du Barrio Amon font aujourd'hui partie du patrimoine historique du Costa Rica.
 </t>
         </is>
       </c>
